--- a/run-easyexcel/src/main/resources/template_fill_object_and_list.xlsx
+++ b/run-easyexcel/src/main/resources/template_fill_object_and_list.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghao/Documents/work/code/cn.howardliu/effective-java/run-easyexcel/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxh/work/code/jvm/cn.howardliu/effective-java/run-easyexcel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74E96C3-AF25-974B-BBEA-EBF8FD9FF1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="5900" windowWidth="27840" windowHeight="16940" xr2:uid="{ADCBB53A-C5C8-5D41-9697-3A252A0340C4}"/>
+    <workbookView xWindow="11880" yWindow="5900" windowWidth="27840" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -92,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +114,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,12 +141,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,11 +170,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,71 +496,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD2800-D377-474E-9BCF-66977B18885E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="D5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
